--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.8258675197455</v>
+        <v>22.06580366666666</v>
       </c>
       <c r="H2">
-        <v>21.8258675197455</v>
+        <v>66.19741099999999</v>
       </c>
       <c r="I2">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="J2">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.8260174558339</v>
+        <v>11.76011933333333</v>
       </c>
       <c r="N2">
-        <v>10.8260174558339</v>
+        <v>35.280358</v>
       </c>
       <c r="O2">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="P2">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="Q2">
-        <v>236.2872227574829</v>
+        <v>259.4964843059042</v>
       </c>
       <c r="R2">
-        <v>236.2872227574829</v>
+        <v>2335.468358753138</v>
       </c>
       <c r="S2">
-        <v>0.02463285333449297</v>
+        <v>0.02277596545539762</v>
       </c>
       <c r="T2">
-        <v>0.02463285333449297</v>
+        <v>0.02277596545539762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.8258675197455</v>
+        <v>22.06580366666666</v>
       </c>
       <c r="H3">
-        <v>21.8258675197455</v>
+        <v>66.19741099999999</v>
       </c>
       <c r="I3">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="J3">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.82282273237842</v>
+        <v>3.903127666666666</v>
       </c>
       <c r="N3">
-        <v>3.82282273237842</v>
+        <v>11.709383</v>
       </c>
       <c r="O3">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="P3">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="Q3">
-        <v>83.43642250836291</v>
+        <v>86.12564877860143</v>
       </c>
       <c r="R3">
-        <v>83.43642250836291</v>
+        <v>775.1308390074128</v>
       </c>
       <c r="S3">
-        <v>0.008698215394036594</v>
+        <v>0.007559234594842267</v>
       </c>
       <c r="T3">
-        <v>0.008698215394036594</v>
+        <v>0.007559234594842266</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.8258675197455</v>
+        <v>22.06580366666666</v>
       </c>
       <c r="H4">
-        <v>21.8258675197455</v>
+        <v>66.19741099999999</v>
       </c>
       <c r="I4">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="J4">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.5473960849667</v>
+        <v>50.38343933333334</v>
       </c>
       <c r="N4">
-        <v>46.5473960849667</v>
+        <v>151.150318</v>
       </c>
       <c r="O4">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="P4">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="Q4">
-        <v>1015.937300339604</v>
+        <v>1111.751080380744</v>
       </c>
       <c r="R4">
-        <v>1015.937300339604</v>
+        <v>10005.7597234267</v>
       </c>
       <c r="S4">
-        <v>0.1059110781541981</v>
+        <v>0.09757821678964723</v>
       </c>
       <c r="T4">
-        <v>0.1059110781541981</v>
+        <v>0.09757821678964722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.8258675197455</v>
+        <v>22.06580366666666</v>
       </c>
       <c r="H5">
-        <v>21.8258675197455</v>
+        <v>66.19741099999999</v>
       </c>
       <c r="I5">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="J5">
-        <v>0.1448916657216887</v>
+        <v>0.1403713626377477</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.48293564440666</v>
+        <v>6.432523333333333</v>
       </c>
       <c r="N5">
-        <v>2.48293564440666</v>
+        <v>19.29757</v>
       </c>
       <c r="O5">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993266</v>
       </c>
       <c r="P5">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993268</v>
       </c>
       <c r="Q5">
-        <v>54.19222443487368</v>
+        <v>141.9387969545855</v>
       </c>
       <c r="R5">
-        <v>54.19222443487368</v>
+        <v>1277.44917259127</v>
       </c>
       <c r="S5">
-        <v>0.005649518838960981</v>
+        <v>0.0124579457978606</v>
       </c>
       <c r="T5">
-        <v>0.005649518838960981</v>
+        <v>0.0124579457978606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.5857957894124</v>
+        <v>98.09611</v>
       </c>
       <c r="H6">
-        <v>97.5857957894124</v>
+        <v>294.28833</v>
       </c>
       <c r="I6">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="J6">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.8260174558339</v>
+        <v>11.76011933333333</v>
       </c>
       <c r="N6">
-        <v>10.8260174558339</v>
+        <v>35.280358</v>
       </c>
       <c r="O6">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="P6">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="Q6">
-        <v>1056.465528657621</v>
+        <v>1153.621959735793</v>
       </c>
       <c r="R6">
-        <v>1056.465528657621</v>
+        <v>10382.59763762214</v>
       </c>
       <c r="S6">
-        <v>0.1101361305815535</v>
+        <v>0.1012532172596094</v>
       </c>
       <c r="T6">
-        <v>0.1101361305815535</v>
+        <v>0.1012532172596094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.5857957894124</v>
+        <v>98.09611</v>
       </c>
       <c r="H7">
-        <v>97.5857957894124</v>
+        <v>294.28833</v>
       </c>
       <c r="I7">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="J7">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.82282273237842</v>
+        <v>3.903127666666666</v>
       </c>
       <c r="N7">
-        <v>3.82282273237842</v>
+        <v>11.709383</v>
       </c>
       <c r="O7">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="P7">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="Q7">
-        <v>373.053198501004</v>
+        <v>382.8816409333766</v>
       </c>
       <c r="R7">
-        <v>373.053198501004</v>
+        <v>3445.934768400389</v>
       </c>
       <c r="S7">
-        <v>0.03889065442218335</v>
+        <v>0.03360546117119834</v>
       </c>
       <c r="T7">
-        <v>0.03889065442218335</v>
+        <v>0.03360546117119834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>97.5857957894124</v>
+        <v>98.09611</v>
       </c>
       <c r="H8">
-        <v>97.5857957894124</v>
+        <v>294.28833</v>
       </c>
       <c r="I8">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="J8">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.5473960849667</v>
+        <v>50.38343933333334</v>
       </c>
       <c r="N8">
-        <v>46.5473960849667</v>
+        <v>151.150318</v>
       </c>
       <c r="O8">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="P8">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="Q8">
-        <v>4542.364688876454</v>
+        <v>4942.419407020993</v>
       </c>
       <c r="R8">
-        <v>4542.364688876454</v>
+        <v>44481.77466318894</v>
       </c>
       <c r="S8">
-        <v>0.4735397956228679</v>
+        <v>0.4337953709912197</v>
       </c>
       <c r="T8">
-        <v>0.4735397956228679</v>
+        <v>0.4337953709912197</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>97.5857957894124</v>
+        <v>98.09611</v>
       </c>
       <c r="H9">
-        <v>97.5857957894124</v>
+        <v>294.28833</v>
       </c>
       <c r="I9">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="J9">
-        <v>0.6478261855989396</v>
+        <v>0.6240373039738243</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.48293564440666</v>
+        <v>6.432523333333333</v>
       </c>
       <c r="N9">
-        <v>2.48293564440666</v>
+        <v>19.29757</v>
       </c>
       <c r="O9">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993266</v>
       </c>
       <c r="P9">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993268</v>
       </c>
       <c r="Q9">
-        <v>242.2992507533214</v>
+        <v>631.0055164842333</v>
       </c>
       <c r="R9">
-        <v>242.2992507533214</v>
+        <v>5679.049648358099</v>
       </c>
       <c r="S9">
-        <v>0.02525960497233483</v>
+        <v>0.05538325455179678</v>
       </c>
       <c r="T9">
-        <v>0.02525960497233483</v>
+        <v>0.05538325455179679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.6167546251892</v>
+        <v>29.56610533333334</v>
       </c>
       <c r="H10">
-        <v>27.6167546251892</v>
+        <v>88.69831600000001</v>
       </c>
       <c r="I10">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="J10">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.8260174558339</v>
+        <v>11.76011933333333</v>
       </c>
       <c r="N10">
-        <v>10.8260174558339</v>
+        <v>35.280358</v>
       </c>
       <c r="O10">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="P10">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="Q10">
-        <v>298.9794676457799</v>
+        <v>347.7009269419032</v>
       </c>
       <c r="R10">
-        <v>298.9794676457799</v>
+        <v>3129.308342477128</v>
       </c>
       <c r="S10">
-        <v>0.03116849608115364</v>
+        <v>0.03051765545888105</v>
       </c>
       <c r="T10">
-        <v>0.03116849608115364</v>
+        <v>0.03051765545888105</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.6167546251892</v>
+        <v>29.56610533333334</v>
       </c>
       <c r="H11">
-        <v>27.6167546251892</v>
+        <v>88.69831600000001</v>
       </c>
       <c r="I11">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="J11">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.82282273237842</v>
+        <v>3.903127666666666</v>
       </c>
       <c r="N11">
-        <v>3.82282273237842</v>
+        <v>11.709383</v>
       </c>
       <c r="O11">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="P11">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="Q11">
-        <v>105.5739573756901</v>
+        <v>115.4002837221142</v>
       </c>
       <c r="R11">
-        <v>105.5739573756901</v>
+        <v>1038.602553499028</v>
       </c>
       <c r="S11">
-        <v>0.01100604500585519</v>
+        <v>0.01012866468163614</v>
       </c>
       <c r="T11">
-        <v>0.01100604500585519</v>
+        <v>0.01012866468163614</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.6167546251892</v>
+        <v>29.56610533333334</v>
       </c>
       <c r="H12">
-        <v>27.6167546251892</v>
+        <v>88.69831600000001</v>
       </c>
       <c r="I12">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="J12">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.5473960849667</v>
+        <v>50.38343933333334</v>
       </c>
       <c r="N12">
-        <v>46.5473960849667</v>
+        <v>151.150318</v>
       </c>
       <c r="O12">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="P12">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="Q12">
-        <v>1285.488016120018</v>
+        <v>1489.642074384943</v>
       </c>
       <c r="R12">
-        <v>1285.488016120018</v>
+        <v>13406.77866946449</v>
       </c>
       <c r="S12">
-        <v>0.1340116380174854</v>
+        <v>0.1307456496678494</v>
       </c>
       <c r="T12">
-        <v>0.1340116380174854</v>
+        <v>0.1307456496678494</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.6167546251892</v>
+        <v>29.56610533333334</v>
       </c>
       <c r="H13">
-        <v>27.6167546251892</v>
+        <v>88.69831600000001</v>
       </c>
       <c r="I13">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="J13">
-        <v>0.1833346406895753</v>
+        <v>0.1880844476016372</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.48293564440666</v>
+        <v>6.432523333333333</v>
       </c>
       <c r="N13">
-        <v>2.48293564440666</v>
+        <v>19.29757</v>
       </c>
       <c r="O13">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993266</v>
       </c>
       <c r="P13">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993268</v>
       </c>
       <c r="Q13">
-        <v>68.57062444171474</v>
+        <v>190.1846624324578</v>
       </c>
       <c r="R13">
-        <v>68.57062444171474</v>
+        <v>1711.66196189212</v>
       </c>
       <c r="S13">
-        <v>0.007148461585081064</v>
+        <v>0.01669247779327067</v>
       </c>
       <c r="T13">
-        <v>0.007148461585081064</v>
+        <v>0.01669247779327067</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.60735128697682</v>
+        <v>7.467887999999999</v>
       </c>
       <c r="H14">
-        <v>3.60735128697682</v>
+        <v>22.403664</v>
       </c>
       <c r="I14">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679087</v>
       </c>
       <c r="J14">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679088</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.8260174558339</v>
+        <v>11.76011933333333</v>
       </c>
       <c r="N14">
-        <v>10.8260174558339</v>
+        <v>35.280358</v>
       </c>
       <c r="O14">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="P14">
-        <v>0.1700087662861737</v>
+        <v>0.1622550713151862</v>
       </c>
       <c r="Q14">
-        <v>39.05324800213594</v>
+        <v>87.82325404796799</v>
       </c>
       <c r="R14">
-        <v>39.05324800213594</v>
+        <v>790.409286431712</v>
       </c>
       <c r="S14">
-        <v>0.004071286288973619</v>
+        <v>0.007708233141298158</v>
       </c>
       <c r="T14">
-        <v>0.004071286288973619</v>
+        <v>0.007708233141298159</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.60735128697682</v>
+        <v>7.467887999999999</v>
       </c>
       <c r="H15">
-        <v>3.60735128697682</v>
+        <v>22.403664</v>
       </c>
       <c r="I15">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679087</v>
       </c>
       <c r="J15">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679088</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.82282273237842</v>
+        <v>3.903127666666666</v>
       </c>
       <c r="N15">
-        <v>3.82282273237842</v>
+        <v>11.709383</v>
       </c>
       <c r="O15">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="P15">
-        <v>0.06003254466509021</v>
+        <v>0.05385168636105758</v>
       </c>
       <c r="Q15">
-        <v>13.79026450352954</v>
+        <v>29.148120264368</v>
       </c>
       <c r="R15">
-        <v>13.79026450352954</v>
+        <v>262.333082379312</v>
       </c>
       <c r="S15">
-        <v>0.001437629843015073</v>
+        <v>0.002558325913380846</v>
       </c>
       <c r="T15">
-        <v>0.001437629843015073</v>
+        <v>0.002558325913380847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.60735128697682</v>
+        <v>7.467887999999999</v>
       </c>
       <c r="H16">
-        <v>3.60735128697682</v>
+        <v>22.403664</v>
       </c>
       <c r="I16">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679087</v>
       </c>
       <c r="J16">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679088</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.5473960849667</v>
+        <v>50.38343933333334</v>
       </c>
       <c r="N16">
-        <v>46.5473960849667</v>
+        <v>151.150318</v>
       </c>
       <c r="O16">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="P16">
-        <v>0.7309673584513454</v>
+        <v>0.6951433323438234</v>
       </c>
       <c r="Q16">
-        <v>167.9128091725244</v>
+        <v>376.257881996128</v>
       </c>
       <c r="R16">
-        <v>167.9128091725244</v>
+        <v>3386.320937965152</v>
       </c>
       <c r="S16">
-        <v>0.01750484665679415</v>
+        <v>0.03302409489510723</v>
       </c>
       <c r="T16">
-        <v>0.01750484665679415</v>
+        <v>0.03302409489510724</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.60735128697682</v>
+        <v>7.467887999999999</v>
       </c>
       <c r="H17">
-        <v>3.60735128697682</v>
+        <v>22.403664</v>
       </c>
       <c r="I17">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679087</v>
       </c>
       <c r="J17">
-        <v>0.02394750798979666</v>
+        <v>0.04750688578679088</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.48293564440666</v>
+        <v>6.432523333333333</v>
       </c>
       <c r="N17">
-        <v>2.48293564440666</v>
+        <v>19.29757</v>
       </c>
       <c r="O17">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993266</v>
       </c>
       <c r="P17">
-        <v>0.03899133059739068</v>
+        <v>0.08874990997993268</v>
       </c>
       <c r="Q17">
-        <v>8.956821092330985</v>
+        <v>48.03736381072</v>
       </c>
       <c r="R17">
-        <v>8.956821092330985</v>
+        <v>432.33627429648</v>
       </c>
       <c r="S17">
-        <v>0.0009337452010138164</v>
+        <v>0.004216231837004632</v>
       </c>
       <c r="T17">
-        <v>0.0009337452010138164</v>
+        <v>0.004216231837004634</v>
       </c>
     </row>
   </sheetData>
